--- a/input/pm/requirements.xlsx
+++ b/input/pm/requirements.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54542AD-93C3-471F-A923-180B2646DAF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71861C2B-F245-4D6A-BD12-20DF6490CEF4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11355" yWindow="1890" windowWidth="24495" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24495" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="204">
   <si>
     <t>Number</t>
   </si>
@@ -37,37 +37,601 @@
     <t>Refined by</t>
   </si>
   <si>
-    <t>base data types</t>
-  </si>
-  <si>
     <t>Implemented in</t>
   </si>
   <si>
-    <t>os_base_types.h</t>
-  </si>
-  <si>
-    <t>The component os shall provide data types abstracting the width of the base types short int, int, long int.</t>
-  </si>
-  <si>
-    <t>The component os_common shall provide abstractions for usage of magic numbers, or compile specific abstractions.</t>
-  </si>
-  <si>
-    <t>mcu abstraction</t>
-  </si>
-  <si>
-    <t>The component os shall provide labels for every MCU type used.</t>
-  </si>
-  <si>
-    <t>The component os shall provide labels for the number of cores in the mcu.</t>
-  </si>
-  <si>
-    <t>The component os_common shall provide abstractions for accessing MCU specific functions.</t>
-  </si>
-  <si>
-    <t>os bug</t>
-  </si>
-  <si>
-    <t>The component os_common shall provide a "set bug" mechanism.</t>
+    <t>Line 83: extern void OS_SetSwBug(os_sw_bugs_t bug_nr, os_sw_bugs_function_t task_func_nr);</t>
+  </si>
+  <si>
+    <t>Line 100: extern void AssignNull(BigInt* leftOperand);</t>
+  </si>
+  <si>
+    <t>Line 101: extern void Assign(BigInt* leftOperand, BigInt* rightOperand);</t>
+  </si>
+  <si>
+    <t>Line 102: extern void AssignUint32(BigInt* leftOperand, uint32 rightOperand);</t>
+  </si>
+  <si>
+    <t>Line 103: extern boolean_t IsGreaterOrEqual(BigInt* Operand1, BigInt* Operand2);</t>
+  </si>
+  <si>
+    <t>Line 104: extern boolean_t IsGreater(BigInt* Operand1, BigInt* Operand2);</t>
+  </si>
+  <si>
+    <t>Line 105: extern boolean_t IsEqual(BigInt* Operand1, BigInt* Operand2);</t>
+  </si>
+  <si>
+    <t>Line 106: extern boolean_t IsLessOrEqual(BigInt* Operand1, BigInt* Operand2);</t>
+  </si>
+  <si>
+    <t>Line 107: extern boolean_t IsLess(BigInt* Operand1, BigInt* Operand2);</t>
+  </si>
+  <si>
+    <t>Line 109: extern void IntDiv(BigInt* Quotient, BigInt* Dividend, BigInt* Divisor);</t>
+  </si>
+  <si>
+    <t>Line 110: extern void IntMul(BigInt* Produkt, BigInt* Faktor1, BigInt* Faktor2);</t>
+  </si>
+  <si>
+    <t>Line 112: extern void IntSub(BigInt* Differenz, BigInt* Minuend, BigInt* Subtrahend);</t>
+  </si>
+  <si>
+    <t>Line 113: extern void IntAdd(BigInt* Summe, BigInt* ErsterSummand, BigInt* ZweiterSummand);</t>
+  </si>
+  <si>
+    <t>Line 3: extern void OS_Exception_RESET();</t>
+  </si>
+  <si>
+    <t>Line 4: extern void OS_Exception_NMI();</t>
+  </si>
+  <si>
+    <t>Line 5: extern void OS_Exception_HARDFAULT();</t>
+  </si>
+  <si>
+    <t>Line 6: extern void OS_Exception_SWI();</t>
+  </si>
+  <si>
+    <t>Line 7: extern void OS_Exception_BUS_FAULT();</t>
+  </si>
+  <si>
+    <t>Line 8: extern void OS_Exception_MEM_MANAG_FAULT();</t>
+  </si>
+  <si>
+    <t>Line 9: extern void OS_Exception_IRQ();</t>
+  </si>
+  <si>
+    <t>Line 10: extern void OS_Exception_FIQ();</t>
+  </si>
+  <si>
+    <t>Line 11: extern void OS_ExceptionHandler(void);</t>
+  </si>
+  <si>
+    <t>Line 12: extern void OS_Exception_DEBUG(void);</t>
+  </si>
+  <si>
+    <t>Line 13: extern void OS_Exception_USAGE_FAULT(void);</t>
+  </si>
+  <si>
+    <t>Line 14: extern void OS_Exception_PendSV(void);</t>
+  </si>
+  <si>
+    <t>Line 15: extern void OS_Exception_Systick(void);</t>
+  </si>
+  <si>
+    <t>Line 16: extern void OS_ISRHANDLERC0(void);</t>
+  </si>
+  <si>
+    <t>Line 19:         .extern LLF_CLEAR_ALL_RAM</t>
+  </si>
+  <si>
+    <t>Line 20:         .extern OS_StartOs</t>
+  </si>
+  <si>
+    <t>Line 21:         .extern INIT_OS_STACK</t>
+  </si>
+  <si>
+    <t>Line 24:         .extern _ram_start</t>
+  </si>
+  <si>
+    <t>Line 25:         .extern _ram_end</t>
+  </si>
+  <si>
+    <t>Line 26:         .extern RAM_CHECK_FAILURE_DETECTED</t>
+  </si>
+  <si>
+    <t>Line 27:         .extern RAM_CHECK_FAILURE_ADDR</t>
+  </si>
+  <si>
+    <t>Line 15: extern void* OS_Calloc(uint32 num, uint32 size);</t>
+  </si>
+  <si>
+    <t>Line 16: extern void* OS_Realloc(void* ptr_old, uint32 size_new);</t>
+  </si>
+  <si>
+    <t>Line 17: extern void* OS_Malloc(uint32 size);</t>
+  </si>
+  <si>
+    <t>Line 18: extern void  OS_Free(void* ptr);</t>
+  </si>
+  <si>
+    <t>Line 3: extern void OS_InitTaskSystem(void);</t>
+  </si>
+  <si>
+    <t>Line 6: extern void OS_StateHandler(void);</t>
+  </si>
+  <si>
+    <t>Line 3: extern void OS_MmuSetup(void);</t>
+  </si>
+  <si>
+    <t>Line 11: extern unsigned_char_t HEAP[HEAP_SIZE];</t>
+  </si>
+  <si>
+    <t>Line 14: extern unsigned_char_t OS_MAIN_STACK[OS_STACK_SIZE];</t>
+  </si>
+  <si>
+    <t>Line 15: extern volatile os_sw_bugs_t OS_SW_BUG[15];</t>
+  </si>
+  <si>
+    <t>Line 16: extern volatile uint32 OS_STATE;</t>
+  </si>
+  <si>
+    <t>Line 17: extern volatile uint32 VAR_HARDFAULT_STATUS_REG;</t>
+  </si>
+  <si>
+    <t>Line 18: extern volatile uint32 VAR_MEM_MANAG_FAULT_STATUS_REG    ;</t>
+  </si>
+  <si>
+    <t>Line 19: extern volatile uint32 VAR_USAGE_FAULT_STATUS_REG    ;</t>
+  </si>
+  <si>
+    <t>Line 20: extern volatile uint32 VAR_FAULT_STATUS_REG    ;</t>
+  </si>
+  <si>
+    <t>Line 21: extern volatile uint32 VAR_MEM_FAULT_ADDR_REG  ;</t>
+  </si>
+  <si>
+    <t>Line 22: extern volatile uint32 VAR_BUS_FAULT_ADDR_REG  ;</t>
+  </si>
+  <si>
+    <t>Line 23: extern volatile uint32 VAR_AUX_FAULT_STATUS_REG;</t>
+  </si>
+  <si>
+    <t>Line 24: extern volatile uint32 VAR_BUS_FAULT_STATUS_REG;</t>
+  </si>
+  <si>
+    <t>Line 25: extern volatile uint32 LINK_REGISTER_HANDLER;</t>
+  </si>
+  <si>
+    <t>Line 26: extern volatile uint32 BACKUP_SYSTICK_CURRENT_VAL_REG;</t>
+  </si>
+  <si>
+    <t>Line 27: extern volatile uint32 DBG_RLD_VALUE;</t>
+  </si>
+  <si>
+    <t>Line 28: extern volatile uint32 DBG_CURR_VAL;</t>
+  </si>
+  <si>
+    <t>Line 29: extern volatile uint32 DBG_CTRL_VALUE;</t>
+  </si>
+  <si>
+    <t>Line 30: extern volatile uint32 DBG_CALIB_VALUE;</t>
+  </si>
+  <si>
+    <t>Line 31: extern volatile uint32 TASK1_CALL_NR;</t>
+  </si>
+  <si>
+    <t>Line 32: extern volatile uint32 TASK2_CALL_NR;</t>
+  </si>
+  <si>
+    <t>Line 33: extern volatile uint32 TASK3_CALL_NR;</t>
+  </si>
+  <si>
+    <t>Line 34: extern volatile uint32 TASK4_CALL_NR;</t>
+  </si>
+  <si>
+    <t>Line 36: extern volatile uint32* CRITICAL_ADDR;</t>
+  </si>
+  <si>
+    <t>Line 37: extern volatile uint32  CRITICAL_POS;</t>
+  </si>
+  <si>
+    <t>Line 38: extern volatile uint32  CRITICAL_STACK_USAGE_PERCENT;</t>
+  </si>
+  <si>
+    <t>Line 39: extern unsigned_char_t   TASK_STACK[MAX_RUN_QUEUE_SIZE][TASK_STACK_SIZE];</t>
+  </si>
+  <si>
+    <t>Line 40: extern scheduler_time_t  LAST_CURRENT_TIME;</t>
+  </si>
+  <si>
+    <t>Line 41: extern scheduling_t      TASK_SCHEDULING_QUEUE[MAX_RUN_PQUEUE_SIZE];</t>
+  </si>
+  <si>
+    <t>Line 42: extern scheduling_t*     RUNNING_SCHEDULING_QUEUE_ENTRY;</t>
+  </si>
+  <si>
+    <t>Line 43: extern task_t            TASK_RUN_QUEUE[MAX_RUN_QUEUE_SIZE];</t>
+  </si>
+  <si>
+    <t>Line 44: extern task_t            RUNNING_TASK[1];/* stores the running task */</t>
+  </si>
+  <si>
+    <t>Line 45: extern task_t            TASK_IDLE_QUEUE[1];</t>
+  </si>
+  <si>
+    <t>Line 46: extern unsigned_char_t   bTASK_QUEUE_INITIALIZED;</t>
+  </si>
+  <si>
+    <t>Line 47: extern task_t TASK_0_VAR, TASK_1_VAR, TASK_2_VAR, TASK_3_VAR;</t>
+  </si>
+  <si>
+    <t>Line 48: extern task_group_t TASK_GROUP_1, TASK_GROUP_2, TASK_GROUP_3, TASK_GROUP_4, TASK_GROUP_5;</t>
+  </si>
+  <si>
+    <t>Line 49: extern task_t*           TASK_TRANSITION_REJECTED_TASK_ADDR;</t>
+  </si>
+  <si>
+    <t>Line 50: extern task_state_t      TASK_TRANSITION_REJECTED_STATE;</t>
+  </si>
+  <si>
+    <t>Line 51: extern task_state_t      TASK_TRANSITION_CURRENT_STATE;</t>
+  </si>
+  <si>
+    <t>Line 52: extern volatile void* SAVED_STACK_POINTER;</t>
+  </si>
+  <si>
+    <t>Line 9: extern void OS_Shutdown(os_reset_type_t reset_typ);</t>
+  </si>
+  <si>
+    <t>Line 5: extern void OS_StackChkPatternInit(void);</t>
+  </si>
+  <si>
+    <t>Line 6: extern void OS_StackCheck(void);</t>
+  </si>
+  <si>
+    <t>Line 5: extern void OS_StartExtPrg(func_ptr_t LoadProgAddr, uint32 PrgSignatur, uint32 PrgSize);</t>
+  </si>
+  <si>
+    <t>Line 5: extern void OS_InitHw(void);</t>
+  </si>
+  <si>
+    <t>Line 12:    /* initialize the external parts...  */</t>
+  </si>
+  <si>
+    <t>Line 13:    /* no relevant external parts */</t>
+  </si>
+  <si>
+    <t>Line 4: extern void OS_InitMc(void);</t>
+  </si>
+  <si>
+    <t>Line 4: extern void OS_InitSw(void);</t>
+  </si>
+  <si>
+    <t>Line 3: extern void OS_StartOs(void);</t>
+  </si>
+  <si>
+    <t>Line 82: extern void SET_SW_BUG(os_sw_bugs_t bug_nr, os_sw_bugs_function_t task_nr);</t>
+  </si>
+  <si>
+    <t>Line 83: extern void Inc_current_time(void);</t>
+  </si>
+  <si>
+    <t>Line 84: extern void OS_ResetCurrentTime(void);</t>
+  </si>
+  <si>
+    <t>Line 85: extern void OS_GetCurrentTime(timebig_t* time);</t>
+  </si>
+  <si>
+    <t>Line 87: extern void OS_TaskSaveTaskEnvironment(task_t* task);</t>
+  </si>
+  <si>
+    <t>Line 88: extern void OS_TASK_RESTORETASK_ENVIRONMENT(task_t* task);</t>
+  </si>
+  <si>
+    <t>Line 89: extern void OS_TASK_RESTORE_SYSTEM_STACK(uint8* system_stack_ptr);</t>
+  </si>
+  <si>
+    <t>Line 90: extern void OS_TASK_SAVE_SYSTEM_STACK(uint8* system_stack_ptr);</t>
+  </si>
+  <si>
+    <t>Line 91: extern void OS_Task_InitTaskEnvironment(task_t* task);</t>
+  </si>
+  <si>
+    <t>Line 92: extern void OS_Task_DeleteTaskEnvironment(task_t* task);</t>
+  </si>
+  <si>
+    <t>Line 93: extern task_t* TASK_PTR[MAX_RUN_QUEUE_SIZE];</t>
+  </si>
+  <si>
+    <t>Line 11: extern task_t* GetRunningTask(void);</t>
+  </si>
+  <si>
+    <t>Line 12: extern task_t** GetRunningSchedulingQueueElementPtr(void);</t>
+  </si>
+  <si>
+    <t>Line 14: extern task_t* AddToTaskQueue(task_t* task);</t>
+  </si>
+  <si>
+    <t>Line 15: extern void AddToIdleTaskQueue(task_t* task);</t>
+  </si>
+  <si>
+    <t>Line 16: extern void DeleteFromTaskQueue(task_t* task);</t>
+  </si>
+  <si>
+    <t>Line 17: extern task_t* GetFromTaskQueue(scheduling_t* scheduling_task_ptr);</t>
+  </si>
+  <si>
+    <t>Line 18: extern task_t* GetIdleTask(void);</t>
+  </si>
+  <si>
+    <t>Line 19: extern scheduling_t* GetFromSchedulingQueue(unsigned_char_t element_nr);</t>
+  </si>
+  <si>
+    <t>Line 20: extern void DeleteFromSchedulingQueue(scheduling_t* scheduling_queue_element);</t>
+  </si>
+  <si>
+    <t>Line 21: extern void AddToSchedulingQueue(task_t* task);</t>
+  </si>
+  <si>
+    <t>Line 22: extern void SET_RUNNING_TASK(task_t* task, scheduling_t* scheduling_task);</t>
+  </si>
+  <si>
+    <t>Line 23: extern void OS_InitTaskQueue(void);</t>
+  </si>
+  <si>
+    <t>Line 16: extern void OS_StartTask(task_t* task, scheduling_t* scheduling_task);</t>
+  </si>
+  <si>
+    <t>Line 17: extern void OS_ActivateTask(task_t* task);</t>
+  </si>
+  <si>
+    <t>Line 18: extern void OS_SleepTask(task_t* task, timebig_t usec, scheduling_t* scheduling_task_ptr);</t>
+  </si>
+  <si>
+    <t>Line 19: extern void OS_InitTask(</t>
+  </si>
+  <si>
+    <t>Line 31: extern void ISR_TASK_DISPATCH(void);</t>
+  </si>
+  <si>
+    <t>Line 32: extern void OS_InitTasks(void);</t>
+  </si>
+  <si>
+    <t>Line 33: extern unsigned_char_t task_state_request(void* task, task_state_t requested_state);</t>
+  </si>
+  <si>
+    <t>Line 34: extern void OS_ActivateDispatcher(void);</t>
+  </si>
+  <si>
+    <t>Line 35: extern void OS_TerminateTask(task_t* task, scheduling_t* scheduling_task);</t>
+  </si>
+  <si>
+    <t>Line 36: extern void OS_TaskDispatcher(void);</t>
+  </si>
+  <si>
+    <t>Line 37: extern void OS_CreateTask(task_t* task);</t>
+  </si>
+  <si>
+    <t>Line 13: extern CoreID_t OS_GetCoreId(void);</t>
+  </si>
+  <si>
+    <t>Line 14: extern void LLF_CHANGE_TO_UNPRIVILIGED_THREAD_MODE(void);</t>
+  </si>
+  <si>
+    <t>Line 7: extern void LLF_INT_ENABLE(void);</t>
+  </si>
+  <si>
+    <t>Line 8: extern void LLF_INT_DISABLE(void);</t>
+  </si>
+  <si>
+    <t>Line 9: extern void LLF_DISABLE_INTERRUPTS_ALL_CORES(void);</t>
+  </si>
+  <si>
+    <t>Line 10: extern void LLF_WAIT_FOR_INTERRUPT(void);</t>
+  </si>
+  <si>
+    <t>Line 11: extern void LLF_MCU_RESET_POWER(void);</t>
+  </si>
+  <si>
+    <t>Line 12: extern uint32 LLF_GET_MPU_PRESENT(void);</t>
+  </si>
+  <si>
+    <t>Line 13: extern void LLF_CLEAR_ALL_RAM(void);</t>
+  </si>
+  <si>
+    <t>Line 14: extern void LLF_MCU_SWITCH_OFF_POWER(void);</t>
+  </si>
+  <si>
+    <t>Line 15: extern void LLF_MPU_DISABLE(void);</t>
+  </si>
+  <si>
+    <t>Line 16: extern void LLF_MPU_ENABLE(void);</t>
+  </si>
+  <si>
+    <t>Line 17: extern void LLF_SAVE_REGISTERS(uint32 r0, uint32 r1, uint32 r2, uint32 r3);</t>
+  </si>
+  <si>
+    <t>Line 18: extern void LLF_RESTORE_TASK_STACK(unsigned_char_t* StackPointer);</t>
+  </si>
+  <si>
+    <t>Line 19: extern void LLF_RESTORE_REGISTERS(task_t* task);</t>
+  </si>
+  <si>
+    <t>Line 20: extern void LLF_RESTORE_SYSTEM_STACK(uint8* system_stack_ptr);</t>
+  </si>
+  <si>
+    <t>Line 21: extern void LLF_SAVE_SYSTEM_STACK(uint8* system_stack_ptr);</t>
+  </si>
+  <si>
+    <t>Line 22: extern void LLF_SAVE_TASK_STACK(unsigned_char_t* StackPointer);</t>
+  </si>
+  <si>
+    <t>Line 23: extern void LLF_SAVE_SYSTEM_STACK(uint8* system_stack_ptr);</t>
+  </si>
+  <si>
+    <t>Line 20:         //.extern OS_StartOs</t>
+  </si>
+  <si>
+    <t>Line 19:         //.extern OS_StartOs</t>
+  </si>
+  <si>
+    <t>Line 18:         .extern OS_MAIN_STACK</t>
+  </si>
+  <si>
+    <t>Line 12: extern void LLF_SAVE_TASK_STACK(unsigned_char_t* StackPointer);</t>
+  </si>
+  <si>
+    <t>Line 14: extern void LLF_SAVE_REGISTERS(uint32 r0, uint32 r1, uint32 r2, uint32 r3);</t>
+  </si>
+  <si>
+    <t>Line 16: extern void LLF_RESTORE_TASK_STACK(unsigned_char_t* StackPointer);</t>
+  </si>
+  <si>
+    <t>Line 18: extern void LLF_RESTORE_REGISTERS(task_t* task);</t>
+  </si>
+  <si>
+    <t>Line 22: extern void LLF_SAVE_SYSTEM_STACK(uint8* system_stack_ptr);</t>
+  </si>
+  <si>
+    <t>Line 24: extern void LLF_CLEAR_ALL_GP_REGISTERS(void);</t>
+  </si>
+  <si>
+    <t>Line 26: extern void LLF_PERFORM_RAM_CHECK(void);</t>
+  </si>
+  <si>
+    <t>Line 11: extern void LLF_INT_DISABLE(void);</t>
+  </si>
+  <si>
+    <t>Line 12: extern void LLF_INT_ENABLE(void);</t>
+  </si>
+  <si>
+    <t>Line 13: extern void LLF_DISABLE_INTERRUPTS_ALL_CORES(void);</t>
+  </si>
+  <si>
+    <t>Line 14: extern void LLF_WAIT_FOR_INTERRUPT(void);</t>
+  </si>
+  <si>
+    <t>Line 5: extern void LLF_MPU_DISABLE(void);</t>
+  </si>
+  <si>
+    <t>Line 6: extern void LLF_MPU_ENABLE(void);</t>
+  </si>
+  <si>
+    <t>Line 7: extern uint32 LLF_GET_MPU_PRESENT(void);</t>
+  </si>
+  <si>
+    <t>Line 8: extern void LLF_MMU_SET_REGION(void* startAddr, void* endAddr);</t>
+  </si>
+  <si>
+    <t>Line 4: extern void LLF_MCU_SWITCH_OFF_POWER(void);</t>
+  </si>
+  <si>
+    <t>Line 5: extern void LLF_MCU_RESET_POWER(void);</t>
+  </si>
+  <si>
+    <t>Line 4: extern void LLF_CLEAR_ALL_RAM(void);</t>
+  </si>
+  <si>
+    <t>Line 48: extern void USER_LED_INIT(led_t Led);</t>
+  </si>
+  <si>
+    <t>Line 49: extern void USER_LED_ON(led_t Led);</t>
+  </si>
+  <si>
+    <t>Line 50: extern void USER_LED_OFF(led_t Led);</t>
+  </si>
+  <si>
+    <t>Line 51: extern void USER_LED_TOGGLE(led_t Led);</t>
+  </si>
+  <si>
+    <t>Line 17:         .global OS_Exception_RESET</t>
+  </si>
+  <si>
+    <t>Line 18:         .global OS_GetCoreId</t>
+  </si>
+  <si>
+    <t>Line 22:         .global LLF_PERFORM_RAM_CHECK</t>
+  </si>
+  <si>
+    <t>Line 23:         .global START_OS</t>
+  </si>
+  <si>
+    <t>Line 16:         .global OS_GetCoreId</t>
+  </si>
+  <si>
+    <t>Line 17:         .global LLF_SAVE_TASK_STACK</t>
+  </si>
+  <si>
+    <t>Line 18:         .global LLF_SAVE_REGISTERS</t>
+  </si>
+  <si>
+    <t>Line 19:         .global LLF_RESTORE_TASK_STACK</t>
+  </si>
+  <si>
+    <t>Line 20:         .global LLF_RESTORE_REGISTERS</t>
+  </si>
+  <si>
+    <t>Line 21:         .global LLF_RESTORE_SYSTEM_STACK</t>
+  </si>
+  <si>
+    <t>Line 22:         .global LLF_SAVE_SYSTEM_STACK</t>
+  </si>
+  <si>
+    <t>Line 23:         .global LLF_CLEAR_ALL_GP_REGISTERS</t>
+  </si>
+  <si>
+    <t>Line 24:         .global LLF_PERFORM_RAM_CHECK</t>
+  </si>
+  <si>
+    <t>Line 25:         .global LLF_CHANGE_TO_UNPRIVILIGED_THREAD_MODE</t>
+  </si>
+  <si>
+    <t>Line 16:         .global LLF_INT_DISABLE</t>
+  </si>
+  <si>
+    <t>Line 17:         .global LLF_INT_ENABLE</t>
+  </si>
+  <si>
+    <t>Line 18:         .global LLF_DISABLE_INTERRUPTS_ALL_CORES</t>
+  </si>
+  <si>
+    <t>Line 19:         .global LLF_WAIT_FOR_INTERRUPT</t>
+  </si>
+  <si>
+    <t>Line 16:         .global LLF_GET_MPU_PRESENT</t>
+  </si>
+  <si>
+    <t>Line 17:         .global LLF_MPU_DISABLE</t>
+  </si>
+  <si>
+    <t>Line 18:         .global LLF_MPU_ENABLE</t>
+  </si>
+  <si>
+    <t>Line 16:         .global LLF_MCU_SWITCH_OFF_POWER</t>
+  </si>
+  <si>
+    <t>Line 17:         .global LLF_MCU_RESET_POWER</t>
+  </si>
+  <si>
+    <t>Line 16:         .global LLF_CLEAR_ALL_RAM</t>
+  </si>
+  <si>
+    <t>Line 17:         .global INIT_OS_STACK</t>
+  </si>
+  <si>
+    <t>Line 16:         .global LLF_DISABLE_INTERRUPTS_ALL_CORES</t>
+  </si>
+  <si>
+    <t>Line 17:         .global LLF_GET_MPU_PRESENT</t>
+  </si>
+  <si>
+    <t>The component os_common shall provide an interface to set a sw bug including a bug_number and a location number.</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>The bug info is stored in array OS_SW_BUG[task_func_nr] = bug_nr</t>
   </si>
 </sst>
 </file>
@@ -400,114 +964,1658 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="48.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>8</v>
+      <c r="B16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/input/pm/requirements.xlsx
+++ b/input/pm/requirements.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71861C2B-F245-4D6A-BD12-20DF6490CEF4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4D125E-6A3E-4037-A27D-9D666B163FC1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24495" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="0" windowWidth="24465" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="209">
   <si>
     <t>Number</t>
   </si>
@@ -632,6 +632,21 @@
   </si>
   <si>
     <t>The bug info is stored in array OS_SW_BUG[task_func_nr] = bug_nr</t>
+  </si>
+  <si>
+    <t>isr_vec_table</t>
+  </si>
+  <si>
+    <t>LLF_EXCEPTION_TO_HANDLER_MODE</t>
+  </si>
+  <si>
+    <t>LLF_EXCEPTION_TO_THREAD_MODE_PRIV</t>
+  </si>
+  <si>
+    <t>LLF_EXCEPTION_TO_THREAD_MODE_UNPRIV</t>
+  </si>
+  <si>
+    <t>OS_Exception_SVC</t>
   </si>
 </sst>
 </file>
@@ -655,12 +670,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -675,13 +696,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -964,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G204"/>
+  <dimension ref="A1:G209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,7 +1031,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1021,7 +1045,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1029,7 +1053,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1037,7 +1061,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1045,7 +1069,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1053,7 +1077,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1061,7 +1085,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1069,7 +1093,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1077,7 +1101,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1101,7 +1125,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1109,7 +1133,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1117,7 +1141,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1125,7 +1149,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1133,7 +1157,7 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1149,7 +1173,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1157,7 +1181,7 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1165,7 +1189,7 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1189,7 +1213,7 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1197,7 +1221,7 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1205,7 +1229,7 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1213,7 +1237,7 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1221,7 +1245,7 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1229,7 +1253,7 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1245,7 +1269,7 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1317,7 +1341,7 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1325,7 +1349,7 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1333,7 +1357,7 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1653,7 +1677,7 @@
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1669,7 +1693,7 @@
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="4" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1677,7 +1701,7 @@
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="4" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1685,7 +1709,7 @@
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="4" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1709,7 +1733,7 @@
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="4" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1717,7 +1741,7 @@
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="4" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1725,7 +1749,7 @@
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="4" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1749,7 +1773,7 @@
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="4" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1757,7 +1781,7 @@
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="4" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1765,7 +1789,7 @@
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="4" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1773,7 +1797,7 @@
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="4" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1781,7 +1805,7 @@
       <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="4" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1789,7 +1813,7 @@
       <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="4" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1797,7 +1821,7 @@
       <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="4" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1821,7 +1845,7 @@
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="4" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1829,7 +1853,7 @@
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="4" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1837,7 +1861,7 @@
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="4" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1845,7 +1869,7 @@
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="4" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1853,7 +1877,7 @@
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="4" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1861,7 +1885,7 @@
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="4" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1869,7 +1893,7 @@
       <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="4" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1877,7 +1901,7 @@
       <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="4" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1885,7 +1909,7 @@
       <c r="A111">
         <v>110</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="4" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1893,7 +1917,7 @@
       <c r="A112">
         <v>111</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="4" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1901,7 +1925,7 @@
       <c r="A113">
         <v>112</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="4" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1909,7 +1933,7 @@
       <c r="A114">
         <v>113</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="4" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1917,7 +1941,7 @@
       <c r="A115">
         <v>114</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="4" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1925,7 +1949,7 @@
       <c r="A116">
         <v>115</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="4" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1933,7 +1957,7 @@
       <c r="A117">
         <v>116</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="4" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1941,7 +1965,7 @@
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1957,7 +1981,7 @@
       <c r="A120">
         <v>119</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="4" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1965,7 +1989,7 @@
       <c r="A121">
         <v>120</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="4" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1973,7 +1997,7 @@
       <c r="A122">
         <v>121</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="4" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1981,7 +2005,7 @@
       <c r="A123">
         <v>122</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="4" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1989,7 +2013,7 @@
       <c r="A124">
         <v>123</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="4" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1997,7 +2021,7 @@
       <c r="A125">
         <v>124</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="4" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2010,7 +2034,7 @@
       <c r="A127">
         <v>126</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="4" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2018,7 +2042,7 @@
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="4" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2026,7 +2050,7 @@
       <c r="A129">
         <v>128</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="4" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2034,7 +2058,7 @@
       <c r="A130">
         <v>129</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="4" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2042,7 +2066,7 @@
       <c r="A131">
         <v>130</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="4" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2050,7 +2074,7 @@
       <c r="A132">
         <v>131</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="4" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2058,7 +2082,7 @@
       <c r="A133">
         <v>132</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="4" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2066,7 +2090,7 @@
       <c r="A134">
         <v>133</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="4" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2082,7 +2106,7 @@
       <c r="A136">
         <v>135</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="4" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2090,7 +2114,7 @@
       <c r="A137">
         <v>136</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="4" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2098,7 +2122,7 @@
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="4" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2106,7 +2130,7 @@
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2114,7 +2138,7 @@
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="4" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2122,7 +2146,7 @@
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="4" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2130,7 +2154,7 @@
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="4" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2138,7 +2162,7 @@
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="4" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2146,7 +2170,7 @@
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="4" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2270,7 +2294,7 @@
       <c r="A161">
         <v>160</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="4" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2278,7 +2302,7 @@
       <c r="A162">
         <v>161</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="4" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2374,7 +2398,7 @@
       <c r="A174">
         <v>173</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B174" s="4" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2382,7 +2406,7 @@
       <c r="A175">
         <v>174</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B175" s="4" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2390,7 +2414,7 @@
       <c r="A176">
         <v>175</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B176" s="4" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2398,7 +2422,7 @@
       <c r="A177">
         <v>176</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B177" s="4" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2616,6 +2640,34 @@
       </c>
       <c r="B204" s="3" t="s">
         <v>200</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B206" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B207" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B208" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B209" s="4" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/input/pm/requirements.xlsx
+++ b/input/pm/requirements.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4D125E-6A3E-4037-A27D-9D666B163FC1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169E43D8-4A99-4D47-899D-0327994A742C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="0" windowWidth="24465" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24465" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="173">
   <si>
     <t>Number</t>
   </si>
@@ -88,9 +88,6 @@
     <t>Line 5: extern void OS_Exception_HARDFAULT();</t>
   </si>
   <si>
-    <t>Line 6: extern void OS_Exception_SWI();</t>
-  </si>
-  <si>
     <t>Line 7: extern void OS_Exception_BUS_FAULT();</t>
   </si>
   <si>
@@ -100,12 +97,6 @@
     <t>Line 9: extern void OS_Exception_IRQ();</t>
   </si>
   <si>
-    <t>Line 10: extern void OS_Exception_FIQ();</t>
-  </si>
-  <si>
-    <t>Line 11: extern void OS_ExceptionHandler(void);</t>
-  </si>
-  <si>
     <t>Line 12: extern void OS_Exception_DEBUG(void);</t>
   </si>
   <si>
@@ -310,12 +301,6 @@
     <t>Line 3: extern void OS_StartOs(void);</t>
   </si>
   <si>
-    <t>Line 82: extern void SET_SW_BUG(os_sw_bugs_t bug_nr, os_sw_bugs_function_t task_nr);</t>
-  </si>
-  <si>
-    <t>Line 83: extern void Inc_current_time(void);</t>
-  </si>
-  <si>
     <t>Line 84: extern void OS_ResetCurrentTime(void);</t>
   </si>
   <si>
@@ -391,9 +376,6 @@
     <t>Line 19: extern void OS_InitTask(</t>
   </si>
   <si>
-    <t>Line 31: extern void ISR_TASK_DISPATCH(void);</t>
-  </si>
-  <si>
     <t>Line 32: extern void OS_InitTasks(void);</t>
   </si>
   <si>
@@ -466,15 +448,6 @@
     <t>Line 22: extern void LLF_SAVE_TASK_STACK(unsigned_char_t* StackPointer);</t>
   </si>
   <si>
-    <t>Line 23: extern void LLF_SAVE_SYSTEM_STACK(uint8* system_stack_ptr);</t>
-  </si>
-  <si>
-    <t>Line 20:         //.extern OS_StartOs</t>
-  </si>
-  <si>
-    <t>Line 19:         //.extern OS_StartOs</t>
-  </si>
-  <si>
     <t>Line 18:         .extern OS_MAIN_STACK</t>
   </si>
   <si>
@@ -542,87 +515,6 @@
   </si>
   <si>
     <t>Line 51: extern void USER_LED_TOGGLE(led_t Led);</t>
-  </si>
-  <si>
-    <t>Line 17:         .global OS_Exception_RESET</t>
-  </si>
-  <si>
-    <t>Line 18:         .global OS_GetCoreId</t>
-  </si>
-  <si>
-    <t>Line 22:         .global LLF_PERFORM_RAM_CHECK</t>
-  </si>
-  <si>
-    <t>Line 23:         .global START_OS</t>
-  </si>
-  <si>
-    <t>Line 16:         .global OS_GetCoreId</t>
-  </si>
-  <si>
-    <t>Line 17:         .global LLF_SAVE_TASK_STACK</t>
-  </si>
-  <si>
-    <t>Line 18:         .global LLF_SAVE_REGISTERS</t>
-  </si>
-  <si>
-    <t>Line 19:         .global LLF_RESTORE_TASK_STACK</t>
-  </si>
-  <si>
-    <t>Line 20:         .global LLF_RESTORE_REGISTERS</t>
-  </si>
-  <si>
-    <t>Line 21:         .global LLF_RESTORE_SYSTEM_STACK</t>
-  </si>
-  <si>
-    <t>Line 22:         .global LLF_SAVE_SYSTEM_STACK</t>
-  </si>
-  <si>
-    <t>Line 23:         .global LLF_CLEAR_ALL_GP_REGISTERS</t>
-  </si>
-  <si>
-    <t>Line 24:         .global LLF_PERFORM_RAM_CHECK</t>
-  </si>
-  <si>
-    <t>Line 25:         .global LLF_CHANGE_TO_UNPRIVILIGED_THREAD_MODE</t>
-  </si>
-  <si>
-    <t>Line 16:         .global LLF_INT_DISABLE</t>
-  </si>
-  <si>
-    <t>Line 17:         .global LLF_INT_ENABLE</t>
-  </si>
-  <si>
-    <t>Line 18:         .global LLF_DISABLE_INTERRUPTS_ALL_CORES</t>
-  </si>
-  <si>
-    <t>Line 19:         .global LLF_WAIT_FOR_INTERRUPT</t>
-  </si>
-  <si>
-    <t>Line 16:         .global LLF_GET_MPU_PRESENT</t>
-  </si>
-  <si>
-    <t>Line 17:         .global LLF_MPU_DISABLE</t>
-  </si>
-  <si>
-    <t>Line 18:         .global LLF_MPU_ENABLE</t>
-  </si>
-  <si>
-    <t>Line 16:         .global LLF_MCU_SWITCH_OFF_POWER</t>
-  </si>
-  <si>
-    <t>Line 17:         .global LLF_MCU_RESET_POWER</t>
-  </si>
-  <si>
-    <t>Line 16:         .global LLF_CLEAR_ALL_RAM</t>
-  </si>
-  <si>
-    <t>Line 17:         .global INIT_OS_STACK</t>
-  </si>
-  <si>
-    <t>Line 16:         .global LLF_DISABLE_INTERRUPTS_ALL_CORES</t>
-  </si>
-  <si>
-    <t>Line 17:         .global LLF_GET_MPU_PRESENT</t>
   </si>
   <si>
     <t>The component os_common shall provide an interface to set a sw bug including a bug_number and a location number.</t>
@@ -670,7 +562,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -680,6 +572,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,7 +594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -706,6 +604,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -988,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G209"/>
+  <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1035,10 +936,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1165,7 +1066,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1197,7 +1098,7 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1205,7 +1106,7 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1253,7 +1154,7 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1269,7 +1170,7 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1285,7 +1186,7 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1293,7 +1194,7 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1301,7 +1202,7 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1309,7 +1210,7 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1317,7 +1218,7 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1325,7 +1226,7 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1333,7 +1234,7 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1341,7 +1242,7 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1349,7 +1250,7 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1357,7 +1258,7 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1377,7 +1278,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1401,7 +1302,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1441,7 +1342,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1465,7 +1366,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1537,7 +1438,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1553,7 +1454,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1569,7 +1470,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1585,7 +1486,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1593,7 +1494,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1609,7 +1510,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1617,7 +1518,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1625,7 +1526,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1633,7 +1534,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1641,7 +1542,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1653,7 +1554,7 @@
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="4" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1669,11 +1570,11 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1685,7 +1586,7 @@
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="4" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1693,15 +1594,15 @@
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1717,7 +1618,7 @@
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="4" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1725,7 +1626,7 @@
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1757,19 +1658,19 @@
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -1785,23 +1686,23 @@
         <v>99</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -1825,11 +1726,11 @@
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="4" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1837,11 +1738,11 @@
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -1849,7 +1750,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -1857,7 +1758,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -1865,7 +1766,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -1905,7 +1806,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -1913,7 +1814,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -1921,7 +1822,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -1973,7 +1874,7 @@
       <c r="A119">
         <v>118</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="4" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2001,7 +1902,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -2029,21 +1930,24 @@
       <c r="A126">
         <v>125</v>
       </c>
+      <c r="B126" s="4" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
-      <c r="B128" s="4" t="s">
-        <v>131</v>
+      <c r="B128" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -2051,7 +1955,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2059,7 +1963,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2067,23 +1971,23 @@
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -2091,87 +1995,87 @@
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
-      <c r="B135" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
-      <c r="B138" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B138" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" s="4" t="s">
-        <v>142</v>
+      <c r="B139" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
-      <c r="B140" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
-      <c r="B141" s="4" t="s">
-        <v>144</v>
+      <c r="B141" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
-      <c r="B142" s="4" t="s">
-        <v>145</v>
+      <c r="B142" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
-      <c r="B143" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B143" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
-      <c r="B144" s="4" t="s">
-        <v>147</v>
+      <c r="B144" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2179,26 +2083,32 @@
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
-      <c r="B147" s="3" t="s">
-        <v>149</v>
+      <c r="B147" s="4" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
+      <c r="B148" s="4" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
@@ -2212,42 +2122,48 @@
       <c r="A150">
         <v>149</v>
       </c>
+      <c r="B150" s="3" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
+      <c r="B152" s="3" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2255,15 +2171,15 @@
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -2271,23 +2187,23 @@
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
-      <c r="B160" s="3" t="s">
-        <v>156</v>
+      <c r="B160" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -2295,7 +2211,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -2303,371 +2219,55 @@
         <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
-      <c r="B163" s="3" t="s">
-        <v>159</v>
+      <c r="B163" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
-      <c r="B164" s="3" t="s">
-        <v>160</v>
+      <c r="B164" s="4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
-      <c r="B165" s="3" t="s">
-        <v>161</v>
+      <c r="B165" s="4" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
-      <c r="B166" s="3" t="s">
-        <v>162</v>
+      <c r="B166" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
-      <c r="B167" s="3" t="s">
-        <v>163</v>
+      <c r="B167" s="4" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
-      <c r="B168" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>168</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>169</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>170</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>171</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173">
+      <c r="B168" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>173</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>174</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>175</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>176</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>177</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>178</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>179</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>180</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>181</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>182</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>183</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>184</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>185</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>186</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>187</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>188</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>189</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>190</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>191</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>192</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>193</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>194</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>195</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>196</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>197</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>198</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>199</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>200</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>201</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>202</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>203</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>204</v>
-      </c>
-      <c r="B205" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B206" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B207" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B208" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B209" s="4" t="s">
-        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/input/pm/requirements.xlsx
+++ b/input/pm/requirements.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169E43D8-4A99-4D47-899D-0327994A742C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95532A30-6D1C-4469-B49E-7584B788E35D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24465" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -562,7 +562,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -581,6 +581,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -594,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -607,6 +613,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -891,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A168"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2034,7 +2043,7 @@
       <c r="A139">
         <v>138</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="6" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2114,7 +2123,7 @@
       <c r="A149">
         <v>148</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="6" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2122,7 +2131,7 @@
       <c r="A150">
         <v>149</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="6" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2130,7 +2139,7 @@
       <c r="A151">
         <v>150</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="6" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2138,7 +2147,7 @@
       <c r="A152">
         <v>151</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="6" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2146,7 +2155,7 @@
       <c r="A153">
         <v>152</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="6" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2154,7 +2163,7 @@
       <c r="A154">
         <v>153</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="6" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2162,7 +2171,7 @@
       <c r="A155">
         <v>154</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="6" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2170,7 +2179,7 @@
       <c r="A156">
         <v>155</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="6" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2178,7 +2187,7 @@
       <c r="A157">
         <v>156</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="6" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2186,7 +2195,7 @@
       <c r="A158">
         <v>157</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="6" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2194,7 +2203,7 @@
       <c r="A159">
         <v>158</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="6" t="s">
         <v>160</v>
       </c>
     </row>

--- a/input/pm/requirements.xlsx
+++ b/input/pm/requirements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F38A66-CCB4-43CE-B0D5-7A49B8440D3F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F784F7-0235-4C10-B8B9-902B38A8B1F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="14865" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="1575" windowWidth="19170" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="requirements" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="189">
   <si>
     <t>Number</t>
   </si>
@@ -708,6 +708,15 @@
   </si>
   <si>
     <t>OS Software Bug amount</t>
+  </si>
+  <si>
+    <t>Precondition</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Acceptance criterica</t>
   </si>
 </sst>
 </file>
@@ -1079,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G177"/>
+  <dimension ref="A1:J177"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,7 +1104,7 @@
     <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1117,8 +1126,17 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="9" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="9" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1133,7 +1151,7 @@
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="9" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1148,7 +1166,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" s="9" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1163,7 +1181,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" s="9" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1178,7 +1196,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" s="9" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1193,7 +1211,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1202,7 +1220,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" s="9" customFormat="1" ht="187.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="187.5" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="7" t="s">
         <v>182</v>
@@ -1215,7 +1233,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" s="9" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="7" t="s">
         <v>185</v>
@@ -1228,7 +1246,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="7" t="s">
         <v>184</v>
@@ -1241,12 +1259,12 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1254,7 +1272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1262,7 +1280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1270,7 +1288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1278,7 +1296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
